--- a/results/I3_N5_M3_T45_C100_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1388.392139807187</v>
+        <v>232.6464527964957</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.608000040054321</v>
+        <v>1.549999952316284</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.650081112563335</v>
+        <v>0.7828588633974837</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.645768123088593</v>
+        <v>0.7828588633974837</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>977.1000000001658</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.65</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,34 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>41.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.21168903071567</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.914294316987416</v>
+        <v>41.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.25804892475681</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32.48909622152295</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +987,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1018,62 +996,6 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000097</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1187,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1198,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1209,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1220,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000097</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1231,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9349999999917</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1242,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>106.7849999999941</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1253,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>100.8199999999924</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1264,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8149999999911</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1275,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>109.434999999993</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1286,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.89000000000852</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1297,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.56000000001042</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1308,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.17000000000917</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -1319,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.29000000000816</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1330,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.17000000000917</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1341,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1352,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1363,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000129</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1374,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1385,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000138</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1396,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.725000000004</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1407,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000444</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000486</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1429,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000335</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1440,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000041</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1451,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000243</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1462,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000267</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1473,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000253</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1484,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.440000000026</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1495,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000243</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1506,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>109.9349999999648</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1517,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>106.7849999999681</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1528,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>100.8199999999655</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -1539,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>107.8149999999642</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -1550,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>109.4349999999642</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -1561,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>177.6150000000435</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1572,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.8100000000487</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>178.4650000000512</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1594,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>177.2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
@@ -1605,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>179.1300000000466</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.61000000001695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1663,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.59500000001935</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1674,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000001797</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1685,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1696,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000001703</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1707,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9.934999999962997</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1718,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.784999999966203</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1729,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8199999999636702</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1740,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.814999999962311</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1751,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.434999999962429</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1762,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>77.61500000003991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1773,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>71.81000000004508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1784,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.46500000004733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1795,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>77.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1806,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>79.13000000004297</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1864,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1875,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1886,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1897,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1963,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1974,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1985,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1996,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2007,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2131,7 +2053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2158,7 +2080,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2169,7 +2091,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2180,7 +2102,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2191,7 +2113,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2202,7 +2124,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2213,7 +2135,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2224,7 +2146,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2235,7 +2157,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2246,7 +2168,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2257,89 +2179,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
